--- a/feature/change-publication-status/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/change-publication-status/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-06T08:27:41+00:00</t>
+    <t>2024-12-06T08:35:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/change-publication-status/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/change-publication-status/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-06T08:35:42+00:00</t>
+    <t>2024-12-10T09:49:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
